--- a/results_files/Complete/Medium/1-mst_file.xlsx
+++ b/results_files/Complete/Medium/1-mst_file.xlsx
@@ -4261,6 +4261,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.09479904174805" customWidth="1"/>
+    <col min="2" max="2" width="33.09479904174805" customWidth="1"/>
+    <col min="3" max="3" width="12.3634033203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">

--- a/results_files/Complete/Medium/1-mst_file.xlsx
+++ b/results_files/Complete/Medium/1-mst_file.xlsx
@@ -4261,11 +4261,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33.09479904174805" customWidth="1"/>
-    <col min="2" max="2" width="33.09479904174805" customWidth="1"/>
-    <col min="3" max="3" width="12.3634033203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
